--- a/DSP/元数据统计.xlsx
+++ b/DSP/元数据统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\TTenYXDoc仓库\TTenYXDoc\DSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D442AA0-3629-4FDD-9AD4-E1867ADF7DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B7824-DB99-4DD1-9185-7B92A191774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="1245" windowWidth="22725" windowHeight="13800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="科技总览" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="解锁全部" sheetId="3" r:id="rId3"/>
     <sheet name="红糖硬飞建筑需要" sheetId="5" r:id="rId4"/>
     <sheet name="红糖硬飞科技升级计算" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="285">
   <si>
     <t>蓝糖</t>
   </si>
@@ -892,12 +893,72 @@
     <t>物流配送器、配送运输机</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>休战统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入元数据用量</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高难度可休战时间（小时）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>休战时间分钟</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗元数据</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化为：天</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化为：年</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,8 +1060,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,13 +1105,184 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1046,7 +1291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,12 +1340,147 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFCC66FF"/>
+      <color rgb="FF9966FF"/>
+      <color rgb="FF9933FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4931,7 +5311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -5469,4 +5849,236 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D162B83-D94D-4BAC-9846-D7D7938126A1}">
+  <dimension ref="B1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="18">
+        <v>50</v>
+      </c>
+      <c r="D3" s="18">
+        <v>600</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19">
+        <v>58968482</v>
+      </c>
+      <c r="G3" s="20">
+        <f>F3/D3*C3/60</f>
+        <v>81900.669444444429</v>
+      </c>
+      <c r="H3" s="20">
+        <f>G3/24</f>
+        <v>3412.5278935185179</v>
+      </c>
+      <c r="I3" s="42">
+        <f>H3/365</f>
+        <v>9.349391489091829</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="21">
+        <v>100</v>
+      </c>
+      <c r="D4" s="21">
+        <v>600</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22">
+        <v>57692116</v>
+      </c>
+      <c r="G4" s="23">
+        <f t="shared" ref="G4:G8" si="0">F4/D4*C4/60</f>
+        <v>160255.87777777779</v>
+      </c>
+      <c r="H4" s="23">
+        <f t="shared" ref="H4:H9" si="1">G4/24</f>
+        <v>6677.3282407407414</v>
+      </c>
+      <c r="I4" s="44">
+        <f t="shared" ref="I4:I9" si="2">H4/365</f>
+        <v>18.29404997463217</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="24">
+        <v>250</v>
+      </c>
+      <c r="D5" s="24">
+        <v>600</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25">
+        <v>57644188</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="0"/>
+        <v>400306.86111111112</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" si="1"/>
+        <v>16679.452546296296</v>
+      </c>
+      <c r="I5" s="46">
+        <f t="shared" si="2"/>
+        <v>45.697130263825464</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="27">
+        <v>750</v>
+      </c>
+      <c r="D6" s="27">
+        <v>600</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28">
+        <v>58472467</v>
+      </c>
+      <c r="G6" s="29">
+        <f t="shared" si="0"/>
+        <v>1218176.3958333333</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" si="1"/>
+        <v>50757.349826388883</v>
+      </c>
+      <c r="I6" s="48">
+        <f t="shared" si="2"/>
+        <v>139.06123240106544</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="30">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="30">
+        <v>600</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31">
+        <v>58942423</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="0"/>
+        <v>2455934.2916666665</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" si="1"/>
+        <v>102330.59548611111</v>
+      </c>
+      <c r="I7" s="50">
+        <f t="shared" si="2"/>
+        <v>280.35779585235923</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="33">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="33">
+        <v>600</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34">
+        <v>65138895</v>
+      </c>
+      <c r="G8" s="35">
+        <f t="shared" si="0"/>
+        <v>5428241.25</v>
+      </c>
+      <c r="H8" s="35">
+        <f t="shared" si="1"/>
+        <v>226176.71875</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="2"/>
+        <v>619.66224315068496</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56">
+        <f>SUM(G3:G8)</f>
+        <v>9744815.3458333332</v>
+      </c>
+      <c r="H9" s="56">
+        <f t="shared" si="1"/>
+        <v>406033.97274305555</v>
+      </c>
+      <c r="I9" s="57">
+        <f>H9/365</f>
+        <v>1112.421843131659</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>